--- a/Simulador.xlsx
+++ b/Simulador.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://almaceneselrey-my.sharepoint.com/personal/ssegura_almaceneselrey_com/Documents/02.- Base de información/21.- Historico de Factores de Importación/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://almaceneselrey-my.sharepoint.com/personal/ssegura_almaceneselrey_com/Documents/11.- Proyectos/03.- Calculadora de Costos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="11_AD4D2F04E46CFB4ACB3E2001B594FA10683EDF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC57F035-090B-4D92-AA0C-4866BB495AB1}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="11_AD4D2F04E46CFB4ACB3E2001B594FA10683EDF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D41A8905-2458-4DF2-BEDE-61255E1EA008}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="162">
   <si>
     <t>PAIS</t>
   </si>
@@ -39,34 +50,478 @@
     <t>CH - CHINA</t>
   </si>
   <si>
-    <t>01 - LIBRERIA</t>
-  </si>
-  <si>
-    <t>09-UTILES</t>
-  </si>
-  <si>
-    <t>19 - FIESTA</t>
-  </si>
-  <si>
-    <t>03-DESECHABLE</t>
-  </si>
-  <si>
-    <t>05-GLOBO</t>
-  </si>
-  <si>
-    <t>06-DISFRAZ</t>
-  </si>
-  <si>
-    <t>07-DECORACION</t>
-  </si>
-  <si>
-    <t>15 - HOGAR</t>
-  </si>
-  <si>
-    <t>03-DECORACION</t>
-  </si>
-  <si>
     <t>Factor_Importación</t>
+  </si>
+  <si>
+    <t>AUTOMOTRIZ</t>
+  </si>
+  <si>
+    <t>ACCESORIOS PARA MOTO</t>
+  </si>
+  <si>
+    <t>ACCESORIOS P-CARGA</t>
+  </si>
+  <si>
+    <t>ALFOMBRAS</t>
+  </si>
+  <si>
+    <t>AROMATIZANTES</t>
+  </si>
+  <si>
+    <t>BOMBILLERIA</t>
+  </si>
+  <si>
+    <t>COBERTORES</t>
+  </si>
+  <si>
+    <t>COJIN PARA ASIENTO</t>
+  </si>
+  <si>
+    <t>CUIDADO AUTOMOTRIZ</t>
+  </si>
+  <si>
+    <t>ELECTRICO</t>
+  </si>
+  <si>
+    <t>GATOS</t>
+  </si>
+  <si>
+    <t>HERRAMIENTA</t>
+  </si>
+  <si>
+    <t>INFLADORES</t>
+  </si>
+  <si>
+    <t>PARRILLAS Y BARRAS</t>
+  </si>
+  <si>
+    <t>REPUESTOS</t>
+  </si>
+  <si>
+    <t>SEGURIDAD</t>
+  </si>
+  <si>
+    <t>TAPASOL</t>
+  </si>
+  <si>
+    <t>TUNING</t>
+  </si>
+  <si>
+    <t>BEBE</t>
+  </si>
+  <si>
+    <t>ALIMENTACION</t>
+  </si>
+  <si>
+    <t>BAÑO</t>
+  </si>
+  <si>
+    <t>DORMITORIO</t>
+  </si>
+  <si>
+    <t>ENTRETENIMIENTO</t>
+  </si>
+  <si>
+    <t>MOBILIARIO</t>
+  </si>
+  <si>
+    <t>ROPA NIÑA</t>
+  </si>
+  <si>
+    <t>ROPA NIÑO</t>
+  </si>
+  <si>
+    <t>COMESTIBLE</t>
+  </si>
+  <si>
+    <t>ABARROTES</t>
+  </si>
+  <si>
+    <t>BEBIDAS</t>
+  </si>
+  <si>
+    <t>CHOCOLATES</t>
+  </si>
+  <si>
+    <t>CONFITES</t>
+  </si>
+  <si>
+    <t>KILO</t>
+  </si>
+  <si>
+    <t>PROYECTOS</t>
+  </si>
+  <si>
+    <t>SNACKS</t>
+  </si>
+  <si>
+    <t>CUIDADO PERSONAL</t>
+  </si>
+  <si>
+    <t>ASEO PERSONAL</t>
+  </si>
+  <si>
+    <t>CAPILAR</t>
+  </si>
+  <si>
+    <t>COLONIA (IMITACION)</t>
+  </si>
+  <si>
+    <t>CORPORAL</t>
+  </si>
+  <si>
+    <t>COSMETICOS</t>
+  </si>
+  <si>
+    <t>FACIAL</t>
+  </si>
+  <si>
+    <t>UÑAS</t>
+  </si>
+  <si>
+    <t>DEPORTE</t>
+  </si>
+  <si>
+    <t>BOXEO</t>
+  </si>
+  <si>
+    <t>DEPORTES DISCIPLINA</t>
+  </si>
+  <si>
+    <t>EQUIPO DE GIMNASIO</t>
+  </si>
+  <si>
+    <t>EQUIPO RENDIMIENTO</t>
+  </si>
+  <si>
+    <t>PESO</t>
+  </si>
+  <si>
+    <t>REHABILITACION</t>
+  </si>
+  <si>
+    <t>SOPORTE</t>
+  </si>
+  <si>
+    <t>YOGA</t>
+  </si>
+  <si>
+    <t>DETALLES</t>
+  </si>
+  <si>
+    <t>DECORACION</t>
+  </si>
+  <si>
+    <t>ENVOLTURA</t>
+  </si>
+  <si>
+    <t>REGALO</t>
+  </si>
+  <si>
+    <t>VAJILLA</t>
+  </si>
+  <si>
+    <t>ELECTRODOMESTICOS</t>
+  </si>
+  <si>
+    <t>COMPUTACION</t>
+  </si>
+  <si>
+    <t>GAMING</t>
+  </si>
+  <si>
+    <t>PEQ ELECTRODOMESTICO</t>
+  </si>
+  <si>
+    <t>TECNOLOGIA</t>
+  </si>
+  <si>
+    <t>USO PERSONAL-SALUD</t>
+  </si>
+  <si>
+    <t>FERRETERIA</t>
+  </si>
+  <si>
+    <t>CONSUMIBLES</t>
+  </si>
+  <si>
+    <t>FONTANERIA</t>
+  </si>
+  <si>
+    <t>ILUMINACION</t>
+  </si>
+  <si>
+    <t>INVIERNO</t>
+  </si>
+  <si>
+    <t>ORGANIZADOR</t>
+  </si>
+  <si>
+    <t>PINTURA</t>
+  </si>
+  <si>
+    <t>REPISA</t>
+  </si>
+  <si>
+    <t>FIESTA</t>
+  </si>
+  <si>
+    <t>DESECHABLE</t>
+  </si>
+  <si>
+    <t>DISFRAZ</t>
+  </si>
+  <si>
+    <t>GLOBO</t>
+  </si>
+  <si>
+    <t>GENERAL</t>
+  </si>
+  <si>
+    <t>HOGAR</t>
+  </si>
+  <si>
+    <t>COCINA</t>
+  </si>
+  <si>
+    <t>LIMPIEZA</t>
+  </si>
+  <si>
+    <t>TEXTIL</t>
+  </si>
+  <si>
+    <t>UTENSILIOS</t>
+  </si>
+  <si>
+    <t>JARDINERIA</t>
+  </si>
+  <si>
+    <t>ACCESORIOS JARDIN</t>
+  </si>
+  <si>
+    <t>HERRAMIENTAS</t>
+  </si>
+  <si>
+    <t>MACETAS</t>
+  </si>
+  <si>
+    <t>JUGUETERIA</t>
+  </si>
+  <si>
+    <t>ACCION</t>
+  </si>
+  <si>
+    <t>ANIMALES</t>
+  </si>
+  <si>
+    <t>BELLEZA</t>
+  </si>
+  <si>
+    <t>DIDACTICO</t>
+  </si>
+  <si>
+    <t>ESTACIONES</t>
+  </si>
+  <si>
+    <t>EXTERIORES</t>
+  </si>
+  <si>
+    <t>FRICCION</t>
+  </si>
+  <si>
+    <t>JUEGO DE MESA</t>
+  </si>
+  <si>
+    <t>JUEGOS</t>
+  </si>
+  <si>
+    <t>LICENCIA</t>
+  </si>
+  <si>
+    <t>MOLDEABLE</t>
+  </si>
+  <si>
+    <t>MONTABLE</t>
+  </si>
+  <si>
+    <t>MUÑECA</t>
+  </si>
+  <si>
+    <t>MUSICALES</t>
+  </si>
+  <si>
+    <t>PROFESIONES</t>
+  </si>
+  <si>
+    <t>VERANO</t>
+  </si>
+  <si>
+    <t>LIBRERIA</t>
+  </si>
+  <si>
+    <t>ARTE MANUALIDADES</t>
+  </si>
+  <si>
+    <t>CARPETERIA</t>
+  </si>
+  <si>
+    <t>CUADERNO</t>
+  </si>
+  <si>
+    <t>LIBROS</t>
+  </si>
+  <si>
+    <t>MES PATRIO</t>
+  </si>
+  <si>
+    <t>OFICINA</t>
+  </si>
+  <si>
+    <t>PAPELERIA</t>
+  </si>
+  <si>
+    <t>UTILES</t>
+  </si>
+  <si>
+    <t>MASCOTAS</t>
+  </si>
+  <si>
+    <t>CUIDADO DE DESECHOS</t>
+  </si>
+  <si>
+    <t>CUIDADO MASCOTA</t>
+  </si>
+  <si>
+    <t>GATO</t>
+  </si>
+  <si>
+    <t>JUGUETE P-DOMESTICOS</t>
+  </si>
+  <si>
+    <t>PECES</t>
+  </si>
+  <si>
+    <t>PERRO</t>
+  </si>
+  <si>
+    <t>ROEDOR</t>
+  </si>
+  <si>
+    <t>TAZAS</t>
+  </si>
+  <si>
+    <t>MUEBLES</t>
+  </si>
+  <si>
+    <t>EXTERIOR</t>
+  </si>
+  <si>
+    <t>MESAS</t>
+  </si>
+  <si>
+    <t>SALA</t>
+  </si>
+  <si>
+    <t>SILLAS</t>
+  </si>
+  <si>
+    <t>NAVIDAD</t>
+  </si>
+  <si>
+    <t>ADORNO</t>
+  </si>
+  <si>
+    <t>ARBOL</t>
+  </si>
+  <si>
+    <t>BOTA</t>
+  </si>
+  <si>
+    <t>CORONA</t>
+  </si>
+  <si>
+    <t>ESFERA</t>
+  </si>
+  <si>
+    <t>FOLLAJE</t>
+  </si>
+  <si>
+    <t>GORRO</t>
+  </si>
+  <si>
+    <t>GUIRNALDA</t>
+  </si>
+  <si>
+    <t>LUCES</t>
+  </si>
+  <si>
+    <t>NACIMIENTO</t>
+  </si>
+  <si>
+    <t>PELUCHE NAVIDEÑO</t>
+  </si>
+  <si>
+    <t>VAJILLA NAVIDEÑA</t>
+  </si>
+  <si>
+    <t>VESTIMENTA</t>
+  </si>
+  <si>
+    <t>RECREACION</t>
+  </si>
+  <si>
+    <t>BBQ</t>
+  </si>
+  <si>
+    <t>CAMPING</t>
+  </si>
+  <si>
+    <t>INFLABLES</t>
+  </si>
+  <si>
+    <t>VIAJE</t>
+  </si>
+  <si>
+    <t>SUMINISTROS</t>
+  </si>
+  <si>
+    <t>ACTIVOS</t>
+  </si>
+  <si>
+    <t>ARTICULO N-DEPRECIAB</t>
+  </si>
+  <si>
+    <t>COMPLEMENTOS</t>
+  </si>
+  <si>
+    <t>MATERIAL ASEO-LIMPIE</t>
+  </si>
+  <si>
+    <t>MATERIAL EXHIBICION</t>
+  </si>
+  <si>
+    <t>MATERIAL PROMOCIONAL</t>
+  </si>
+  <si>
+    <t>TIENDA</t>
+  </si>
+  <si>
+    <t>ACCESORIOS</t>
+  </si>
+  <si>
+    <t>CABALLERO</t>
+  </si>
+  <si>
+    <t>DAMA</t>
+  </si>
+  <si>
+    <t>NIÑA</t>
+  </si>
+  <si>
+    <t>NIÑO</t>
+  </si>
+  <si>
+    <t>ZAPATERIA</t>
   </si>
 </sst>
 </file>
@@ -77,7 +532,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +541,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -114,10 +577,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -399,17 +864,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.81640625" bestFit="1" customWidth="1"/>
@@ -420,17 +885,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>13</v>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -441,13 +906,13 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>1.1072498132111859</v>
+        <v>1.1478771327441453</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -458,13 +923,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2">
-        <v>1.346785363505983</v>
+        <v>1.1282126228629472</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -475,13 +940,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2">
-        <v>1.1938283996005521</v>
+        <v>1.2653506835353154</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -492,13 +957,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2">
-        <v>1.1254529070106591</v>
+        <v>1.3680819161149416</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -509,13 +974,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2">
-        <v>1.1254529060975229</v>
+        <v>1.1217868740115526</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -526,142 +991,2248 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2">
-        <v>1.1723388896653713</v>
+        <v>1.171110181600086</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1.1959549983768827</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.2729918089909036</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.1468566484740801</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.1428565678452649</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1.1676364633057881</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.1222558816122317</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1.1217884306306174</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1.1353082902581864</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1.2400349538364184</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="8:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1.1505650794324853</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="8:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1.1702011377957791</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="8:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1.2733204767197783</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="8:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1.3580189716532618</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="8:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1.1596688229842866</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="8:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1.1571493855145218</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="8:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1.3810727899856428</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="8:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1.2647051074230231</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="8:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1.0857690050912276</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="8:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1.4098076019631658</v>
+      </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="8:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1.4862113168766178</v>
+      </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="8:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1.3399199071998171</v>
+      </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="8:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1.3297199506474837</v>
+      </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="8:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1.2768125582192387</v>
+      </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="8:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1.192079674257952</v>
+      </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="8:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1.3155407110436803</v>
+      </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1.2167252778103013</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1.1278828897636672</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1.1483259760804001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1.1785967887214184</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1.1028509502813038</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1.1445961312223596</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1.1090751892313</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1.242667147612637</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1.1985442364140302</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1.2400999911478348</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1.1921798368834113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1.1521543359902411</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1.1833759825887418</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1.2849406254934872</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1.2076093530228251</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1.1389352056345048</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1.2448263533332689</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1.2119073364877964</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1.1534416521679367</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1.1473489487658908</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1.1342108436686225</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1.3897384460212223</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1.1274056057081743</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" t="s">
+        <v>66</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1.2236871681577106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1.1904941356199297</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1.2388204728616414</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" t="s">
+        <v>69</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1.1429831388379048</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1.1560807546092657</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1.1966506066948293</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" t="s">
+        <v>71</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1.1172066917031265</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" t="s">
+        <v>72</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1.4256210845920581</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" t="s">
+        <v>73</v>
+      </c>
+      <c r="D64" s="2">
+        <v>1.2250389556160122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" t="s">
+        <v>74</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1.7603978429756362</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1.1735580119587266</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" t="s">
+        <v>57</v>
+      </c>
+      <c r="D67" s="2">
+        <v>1.2126255679554208</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" t="s">
+        <v>75</v>
+      </c>
+      <c r="C68" t="s">
+        <v>76</v>
+      </c>
+      <c r="D68" s="2">
+        <v>1.2304609694176147</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" t="s">
+        <v>77</v>
+      </c>
+      <c r="D69" s="2">
+        <v>1.1702672251960313</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" t="s">
+        <v>75</v>
+      </c>
+      <c r="C70" t="s">
+        <v>78</v>
+      </c>
+      <c r="D70" s="2">
+        <v>1.1028187186556553</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" t="s">
+        <v>79</v>
+      </c>
+      <c r="C71" t="s">
+        <v>79</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1.2498575146126714</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" t="s">
+        <v>81</v>
+      </c>
+      <c r="D72" s="2">
+        <v>1.313783472519767</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" t="s">
+        <v>80</v>
+      </c>
+      <c r="C73" t="s">
+        <v>57</v>
+      </c>
+      <c r="D73" s="2">
+        <v>1.266513888478817</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" t="s">
+        <v>82</v>
+      </c>
+      <c r="D74" s="2">
+        <v>1.3178407329707482</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" t="s">
+        <v>83</v>
+      </c>
+      <c r="D75" s="2">
+        <v>1.1978358050834441</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" t="s">
+        <v>84</v>
+      </c>
+      <c r="D76" s="2">
+        <v>1.149870855648601</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" t="s">
+        <v>60</v>
+      </c>
+      <c r="D77" s="2">
+        <v>1.3884035464546609</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" t="s">
+        <v>85</v>
+      </c>
+      <c r="C78" t="s">
+        <v>86</v>
+      </c>
+      <c r="D78" s="2">
+        <v>1.3110974628633476</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" t="s">
+        <v>85</v>
+      </c>
+      <c r="C79" t="s">
+        <v>57</v>
+      </c>
+      <c r="D79" s="2">
+        <v>1.399545287526522</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" t="s">
+        <v>85</v>
+      </c>
+      <c r="C80" t="s">
+        <v>87</v>
+      </c>
+      <c r="D80" s="2">
+        <v>1.1861007141337072</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81" t="s">
+        <v>88</v>
+      </c>
+      <c r="D81" s="2">
+        <v>1.3949750856157086</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" t="s">
+        <v>89</v>
+      </c>
+      <c r="C82" t="s">
+        <v>90</v>
+      </c>
+      <c r="D82" s="2">
+        <v>1.2945046720991102</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" t="s">
+        <v>89</v>
+      </c>
+      <c r="C83" t="s">
+        <v>91</v>
+      </c>
+      <c r="D83" s="2">
+        <v>1.3098741705083201</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84" t="s">
+        <v>89</v>
+      </c>
+      <c r="C84" t="s">
+        <v>23</v>
+      </c>
+      <c r="D84" s="2">
+        <v>1.3660138497092829</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85" t="s">
+        <v>92</v>
+      </c>
+      <c r="D85" s="2">
+        <v>1.3079629316519625</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86" t="s">
+        <v>89</v>
+      </c>
+      <c r="C86" t="s">
+        <v>47</v>
+      </c>
+      <c r="D86" s="2">
+        <v>1.2291402916051071</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" t="s">
+        <v>89</v>
+      </c>
+      <c r="C87" t="s">
+        <v>93</v>
+      </c>
+      <c r="D87" s="2">
+        <v>1.3824908080668525</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88" t="s">
+        <v>89</v>
+      </c>
+      <c r="C88" t="s">
+        <v>94</v>
+      </c>
+      <c r="D88" s="2">
+        <v>1.3284978233568168</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89" t="s">
+        <v>89</v>
+      </c>
+      <c r="C89" t="s">
+        <v>95</v>
+      </c>
+      <c r="D89" s="2">
+        <v>1.2293247089378991</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90" t="s">
+        <v>89</v>
+      </c>
+      <c r="C90" t="s">
+        <v>96</v>
+      </c>
+      <c r="D90" s="2">
+        <v>1.358281491417149</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91" t="s">
+        <v>89</v>
+      </c>
+      <c r="C91" t="s">
+        <v>97</v>
+      </c>
+      <c r="D91" s="2">
+        <v>1.2905941285865583</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92" t="s">
+        <v>89</v>
+      </c>
+      <c r="C92" t="s">
+        <v>98</v>
+      </c>
+      <c r="D92" s="2">
+        <v>1.2443048326398392</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" t="s">
+        <v>89</v>
+      </c>
+      <c r="C93" t="s">
+        <v>99</v>
+      </c>
+      <c r="D93" s="2">
+        <v>1.1948665082180738</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>3</v>
+      </c>
+      <c r="B94" t="s">
+        <v>89</v>
+      </c>
+      <c r="C94" t="s">
+        <v>100</v>
+      </c>
+      <c r="D94" s="2">
+        <v>1.1833849562132697</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>3</v>
+      </c>
+      <c r="B95" t="s">
+        <v>89</v>
+      </c>
+      <c r="C95" t="s">
+        <v>101</v>
+      </c>
+      <c r="D95" s="2">
+        <v>1.2645730769984282</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>3</v>
+      </c>
+      <c r="B96" t="s">
+        <v>89</v>
+      </c>
+      <c r="C96" t="s">
+        <v>102</v>
+      </c>
+      <c r="D96" s="2">
+        <v>1.3259347463849227</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97" t="s">
+        <v>89</v>
+      </c>
+      <c r="C97" t="s">
+        <v>103</v>
+      </c>
+      <c r="D97" s="2">
+        <v>1.2804223691607284</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>3</v>
+      </c>
+      <c r="B98" t="s">
+        <v>89</v>
+      </c>
+      <c r="C98" t="s">
+        <v>104</v>
+      </c>
+      <c r="D98" s="2">
+        <v>1.3272246073859515</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>3</v>
+      </c>
+      <c r="B99" t="s">
+        <v>89</v>
+      </c>
+      <c r="C99" t="s">
+        <v>37</v>
+      </c>
+      <c r="D99" s="2">
+        <v>1.1681730312412428</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>3</v>
+      </c>
+      <c r="B100" t="s">
+        <v>89</v>
+      </c>
+      <c r="C100" t="s">
+        <v>105</v>
+      </c>
+      <c r="D100" s="2">
+        <v>1.2757190463983252</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>3</v>
+      </c>
+      <c r="B101" t="s">
+        <v>106</v>
+      </c>
+      <c r="C101" t="s">
+        <v>107</v>
+      </c>
+      <c r="D101" s="2">
+        <v>1.272616932800692</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>3</v>
+      </c>
+      <c r="B102" t="s">
+        <v>106</v>
+      </c>
+      <c r="C102" t="s">
+        <v>108</v>
+      </c>
+      <c r="D102" s="2">
+        <v>1.239665794946671</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>3</v>
+      </c>
+      <c r="B103" t="s">
+        <v>106</v>
+      </c>
+      <c r="C103" t="s">
+        <v>109</v>
+      </c>
+      <c r="D103" s="2">
+        <v>1.2798900332668564</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104" t="s">
+        <v>106</v>
+      </c>
+      <c r="C104" t="s">
+        <v>110</v>
+      </c>
+      <c r="D104" s="2">
+        <v>1.0508933859535963</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>3</v>
+      </c>
+      <c r="B105" t="s">
+        <v>106</v>
+      </c>
+      <c r="C105" t="s">
+        <v>111</v>
+      </c>
+      <c r="D105" s="2">
+        <v>1.0960696747741538</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>3</v>
+      </c>
+      <c r="B106" t="s">
+        <v>106</v>
+      </c>
+      <c r="C106" t="s">
+        <v>112</v>
+      </c>
+      <c r="D106" s="2">
+        <v>1.1087579454803822</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>3</v>
+      </c>
+      <c r="B107" t="s">
+        <v>106</v>
+      </c>
+      <c r="C107" t="s">
+        <v>113</v>
+      </c>
+      <c r="D107" s="2">
+        <v>1.3909168504559839</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>3</v>
+      </c>
+      <c r="B108" t="s">
+        <v>106</v>
+      </c>
+      <c r="C108" t="s">
+        <v>114</v>
+      </c>
+      <c r="D108" s="2">
+        <v>1.172921555131994</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>3</v>
+      </c>
+      <c r="B109" t="s">
+        <v>115</v>
+      </c>
+      <c r="C109" t="s">
+        <v>116</v>
+      </c>
+      <c r="D109" s="2">
+        <v>1.2839067446167376</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>3</v>
+      </c>
+      <c r="B110" t="s">
+        <v>115</v>
+      </c>
+      <c r="C110" t="s">
+        <v>117</v>
+      </c>
+      <c r="D110" s="2">
+        <v>1.2619945353064499</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>3</v>
+      </c>
+      <c r="B111" t="s">
+        <v>115</v>
+      </c>
+      <c r="C111" t="s">
+        <v>118</v>
+      </c>
+      <c r="D111" s="2">
+        <v>1.4809508920715566</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>3</v>
+      </c>
+      <c r="B112" t="s">
+        <v>115</v>
+      </c>
+      <c r="C112" t="s">
+        <v>119</v>
+      </c>
+      <c r="D112" s="2">
+        <v>1.2171200404387761</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>3</v>
+      </c>
+      <c r="B113" t="s">
+        <v>115</v>
+      </c>
+      <c r="C113" t="s">
+        <v>120</v>
+      </c>
+      <c r="D113" s="2">
+        <v>1.2954588783540872</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>3</v>
+      </c>
+      <c r="B114" t="s">
+        <v>115</v>
+      </c>
+      <c r="C114" t="s">
+        <v>121</v>
+      </c>
+      <c r="D114" s="2">
+        <v>1.2894959155609507</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>3</v>
+      </c>
+      <c r="B115" t="s">
+        <v>115</v>
+      </c>
+      <c r="C115" t="s">
+        <v>122</v>
+      </c>
+      <c r="D115" s="2">
+        <v>1.283188882180835</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>3</v>
+      </c>
+      <c r="B116" t="s">
+        <v>115</v>
+      </c>
+      <c r="C116" t="s">
+        <v>123</v>
+      </c>
+      <c r="D116" s="2">
+        <v>1.2698112218079722</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>3</v>
+      </c>
+      <c r="B117" t="s">
+        <v>124</v>
+      </c>
+      <c r="C117" t="s">
+        <v>25</v>
+      </c>
+      <c r="D117" s="2">
+        <v>1.3773056702718032</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>3</v>
+      </c>
+      <c r="B118" t="s">
+        <v>124</v>
+      </c>
+      <c r="C118" t="s">
+        <v>81</v>
+      </c>
+      <c r="D118" s="2">
+        <v>1.4232018699314974</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>3</v>
+      </c>
+      <c r="B119" t="s">
+        <v>124</v>
+      </c>
+      <c r="C119" t="s">
+        <v>26</v>
+      </c>
+      <c r="D119" s="2">
+        <v>1.4156412879290698</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>3</v>
+      </c>
+      <c r="B120" t="s">
+        <v>124</v>
+      </c>
+      <c r="C120" t="s">
+        <v>125</v>
+      </c>
+      <c r="D120" s="2">
+        <v>1.4402881948990955</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>3</v>
+      </c>
+      <c r="B121" t="s">
+        <v>124</v>
+      </c>
+      <c r="C121" t="s">
+        <v>126</v>
+      </c>
+      <c r="D121" s="2">
+        <v>1.3734167055914563</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>3</v>
+      </c>
+      <c r="B122" t="s">
+        <v>124</v>
+      </c>
+      <c r="C122" t="s">
+        <v>112</v>
+      </c>
+      <c r="D122" s="2">
+        <v>1.4655195271054304</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>3</v>
+      </c>
+      <c r="B123" t="s">
+        <v>124</v>
+      </c>
+      <c r="C123" t="s">
+        <v>127</v>
+      </c>
+      <c r="D123" s="2">
+        <v>1.4951915951794785</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>3</v>
+      </c>
+      <c r="B124" t="s">
+        <v>124</v>
+      </c>
+      <c r="C124" t="s">
+        <v>128</v>
+      </c>
+      <c r="D124" s="2">
+        <v>1.5884101947993901</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>3</v>
+      </c>
+      <c r="B125" t="s">
+        <v>129</v>
+      </c>
+      <c r="C125" t="s">
+        <v>130</v>
+      </c>
+      <c r="D125" s="2">
+        <v>1.3525227021149564</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>3</v>
+      </c>
+      <c r="B126" t="s">
+        <v>129</v>
+      </c>
+      <c r="C126" t="s">
+        <v>131</v>
+      </c>
+      <c r="D126" s="2">
+        <v>1.302078171202101</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>3</v>
+      </c>
+      <c r="B127" t="s">
+        <v>129</v>
+      </c>
+      <c r="C127" t="s">
+        <v>132</v>
+      </c>
+      <c r="D127" s="2">
+        <v>1.1952982994991233</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>3</v>
+      </c>
+      <c r="B128" t="s">
+        <v>129</v>
+      </c>
+      <c r="C128" t="s">
+        <v>133</v>
+      </c>
+      <c r="D128" s="2">
+        <v>1.3915496767482931</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>3</v>
+      </c>
+      <c r="B129" t="s">
+        <v>129</v>
+      </c>
+      <c r="C129" t="s">
+        <v>57</v>
+      </c>
+      <c r="D129" s="2">
+        <v>1.2456321001030766</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>3</v>
+      </c>
+      <c r="B130" t="s">
+        <v>129</v>
+      </c>
+      <c r="C130" t="s">
+        <v>134</v>
+      </c>
+      <c r="D130" s="2">
+        <v>1.7550059327915795</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>3</v>
+      </c>
+      <c r="B131" t="s">
+        <v>129</v>
+      </c>
+      <c r="C131" t="s">
+        <v>125</v>
+      </c>
+      <c r="D131" s="2">
+        <v>1.1989626504073436</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>3</v>
+      </c>
+      <c r="B132" t="s">
+        <v>129</v>
+      </c>
+      <c r="C132" t="s">
+        <v>135</v>
+      </c>
+      <c r="D132" s="2">
+        <v>1.2377295510281754</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>3</v>
+      </c>
+      <c r="B133" t="s">
+        <v>129</v>
+      </c>
+      <c r="C133" t="s">
+        <v>136</v>
+      </c>
+      <c r="D133" s="2">
+        <v>1.1920215964692475</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>3</v>
+      </c>
+      <c r="B134" t="s">
+        <v>129</v>
+      </c>
+      <c r="C134" t="s">
+        <v>137</v>
+      </c>
+      <c r="D134" s="2">
+        <v>1.3107653421469472</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>3</v>
+      </c>
+      <c r="B135" t="s">
+        <v>129</v>
+      </c>
+      <c r="C135" t="s">
+        <v>138</v>
+      </c>
+      <c r="D135" s="2">
+        <v>1.1425705342963344</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>3</v>
+      </c>
+      <c r="B136" t="s">
+        <v>129</v>
+      </c>
+      <c r="C136" t="s">
+        <v>139</v>
+      </c>
+      <c r="D136" s="2">
+        <v>1.4143436322632545</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>3</v>
+      </c>
+      <c r="B137" t="s">
+        <v>129</v>
+      </c>
+      <c r="C137" t="s">
+        <v>140</v>
+      </c>
+      <c r="D137" s="2">
+        <v>1.1952030589119189</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>3</v>
+      </c>
+      <c r="B138" t="s">
+        <v>129</v>
+      </c>
+      <c r="C138" t="s">
+        <v>83</v>
+      </c>
+      <c r="D138" s="2">
+        <v>1.3466425469230174</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>3</v>
+      </c>
+      <c r="B139" t="s">
+        <v>129</v>
+      </c>
+      <c r="C139" t="s">
+        <v>141</v>
+      </c>
+      <c r="D139" s="2">
+        <v>1.3817853426387519</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>3</v>
+      </c>
+      <c r="B140" t="s">
+        <v>129</v>
+      </c>
+      <c r="C140" t="s">
+        <v>142</v>
+      </c>
+      <c r="D140" s="2">
+        <v>1.2686710578499776</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>3</v>
+      </c>
+      <c r="B141" t="s">
+        <v>143</v>
+      </c>
+      <c r="C141" t="s">
+        <v>144</v>
+      </c>
+      <c r="D141" s="2">
+        <v>1.3170726235660863</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>3</v>
+      </c>
+      <c r="B142" t="s">
+        <v>143</v>
+      </c>
+      <c r="C142" t="s">
+        <v>145</v>
+      </c>
+      <c r="D142" s="2">
+        <v>1.263496099333425</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>3</v>
+      </c>
+      <c r="B143" t="s">
+        <v>143</v>
+      </c>
+      <c r="C143" t="s">
+        <v>146</v>
+      </c>
+      <c r="D143" s="2">
+        <v>1.2395331719569973</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>3</v>
+      </c>
+      <c r="B144" t="s">
+        <v>143</v>
+      </c>
+      <c r="C144" t="s">
+        <v>105</v>
+      </c>
+      <c r="D144" s="2">
+        <v>1.296387421888856</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>3</v>
+      </c>
+      <c r="B145" t="s">
+        <v>143</v>
+      </c>
+      <c r="C145" t="s">
+        <v>147</v>
+      </c>
+      <c r="D145" s="2">
+        <v>1.2696025977646528</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>3</v>
+      </c>
+      <c r="B146" t="s">
+        <v>148</v>
+      </c>
+      <c r="C146" t="s">
+        <v>149</v>
+      </c>
+      <c r="D146" s="2">
+        <v>1.3330659890800562</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>3</v>
+      </c>
+      <c r="B147" t="s">
+        <v>148</v>
+      </c>
+      <c r="C147" t="s">
+        <v>150</v>
+      </c>
+      <c r="D147" s="2">
+        <v>1.1070344407394124</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>3</v>
+      </c>
+      <c r="B148" t="s">
+        <v>148</v>
+      </c>
+      <c r="C148" t="s">
+        <v>151</v>
+      </c>
+      <c r="D148" s="2">
+        <v>1.4294833024319347</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>3</v>
+      </c>
+      <c r="B149" t="s">
+        <v>148</v>
+      </c>
+      <c r="C149" t="s">
+        <v>152</v>
+      </c>
+      <c r="D149" s="2">
+        <v>1.1617498078990109</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>3</v>
+      </c>
+      <c r="B150" t="s">
+        <v>148</v>
+      </c>
+      <c r="C150" t="s">
+        <v>153</v>
+      </c>
+      <c r="D150" s="2">
+        <v>1.5140772950875732</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>3</v>
+      </c>
+      <c r="B151" t="s">
+        <v>148</v>
+      </c>
+      <c r="C151" t="s">
+        <v>154</v>
+      </c>
+      <c r="D151" s="2">
+        <v>1.3838772101521348</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>3</v>
+      </c>
+      <c r="B152" t="s">
+        <v>155</v>
+      </c>
+      <c r="C152" t="s">
+        <v>156</v>
+      </c>
+      <c r="D152" s="2">
+        <v>1.1146434842524866</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>3</v>
+      </c>
+      <c r="B153" t="s">
+        <v>155</v>
+      </c>
+      <c r="C153" t="s">
+        <v>157</v>
+      </c>
+      <c r="D153" s="2">
+        <v>1.0903064792152024</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>3</v>
+      </c>
+      <c r="B154" t="s">
+        <v>155</v>
+      </c>
+      <c r="C154" t="s">
+        <v>158</v>
+      </c>
+      <c r="D154" s="2">
+        <v>1.0733244885342883</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>3</v>
+      </c>
+      <c r="B155" t="s">
+        <v>155</v>
+      </c>
+      <c r="C155" t="s">
+        <v>159</v>
+      </c>
+      <c r="D155" s="2">
+        <v>1.0158661059785628</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>3</v>
+      </c>
+      <c r="B156" t="s">
+        <v>155</v>
+      </c>
+      <c r="C156" t="s">
+        <v>160</v>
+      </c>
+      <c r="D156" s="2">
+        <v>1.0175200322395506</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>3</v>
+      </c>
+      <c r="B157" t="s">
+        <v>161</v>
+      </c>
+      <c r="C157" t="s">
+        <v>156</v>
+      </c>
+      <c r="D157" s="2">
+        <v>1.1328058384715944</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>3</v>
+      </c>
+      <c r="B158" t="s">
+        <v>161</v>
+      </c>
+      <c r="C158" t="s">
+        <v>157</v>
+      </c>
+      <c r="D158" s="2">
+        <v>1.2273493890531206</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>3</v>
+      </c>
+      <c r="B159" t="s">
+        <v>161</v>
+      </c>
+      <c r="C159" t="s">
+        <v>158</v>
+      </c>
+      <c r="D159" s="2">
+        <v>1.2498334786230585</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>3</v>
+      </c>
+      <c r="B160" t="s">
+        <v>161</v>
+      </c>
+      <c r="C160" t="s">
+        <v>159</v>
+      </c>
+      <c r="D160" s="2">
+        <v>1.1958526335869808</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>3</v>
+      </c>
+      <c r="B161" t="s">
+        <v>161</v>
+      </c>
+      <c r="C161" t="s">
+        <v>160</v>
+      </c>
+      <c r="D161" s="2">
+        <v>1.1745905681287681</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Simulador.xlsx
+++ b/Simulador.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://almaceneselrey-my.sharepoint.com/personal/ssegura_almaceneselrey_com/Documents/11.- Proyectos/03.- Calculadora de Costos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="11_AD4D2F04E46CFB4ACB3E2001B594FA10683EDF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D41A8905-2458-4DF2-BEDE-61255E1EA008}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="11_AD4D2F04E46CFB4ACB3E2001B594FA10683EDF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F81D7828-BBA2-47B0-855F-51807D740924}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$D$154</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="154">
   <si>
     <t>PAIS</t>
   </si>
@@ -275,9 +278,6 @@
     <t>GLOBO</t>
   </si>
   <si>
-    <t>GENERAL</t>
-  </si>
-  <si>
     <t>HOGAR</t>
   </si>
   <si>
@@ -480,27 +480,6 @@
   </si>
   <si>
     <t>VIAJE</t>
-  </si>
-  <si>
-    <t>SUMINISTROS</t>
-  </si>
-  <si>
-    <t>ACTIVOS</t>
-  </si>
-  <si>
-    <t>ARTICULO N-DEPRECIAB</t>
-  </si>
-  <si>
-    <t>COMPLEMENTOS</t>
-  </si>
-  <si>
-    <t>MATERIAL ASEO-LIMPIE</t>
-  </si>
-  <si>
-    <t>MATERIAL EXHIBICION</t>
-  </si>
-  <si>
-    <t>MATERIAL PROMOCIONAL</t>
   </si>
   <si>
     <t>TIENDA</t>
@@ -864,10 +843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J161"/>
+  <dimension ref="A1:J154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1968,10 +1947,10 @@
         <v>79</v>
       </c>
       <c r="C71" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D71" s="2">
-        <v>1.2498575146126714</v>
+        <v>1.313783472519767</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
@@ -1979,13 +1958,13 @@
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C72" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="D72" s="2">
-        <v>1.313783472519767</v>
+        <v>1.266513888478817</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
@@ -1993,13 +1972,13 @@
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C73" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="D73" s="2">
-        <v>1.266513888478817</v>
+        <v>1.3178407329707482</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
@@ -2007,13 +1986,13 @@
         <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C74" t="s">
         <v>82</v>
       </c>
       <c r="D74" s="2">
-        <v>1.3178407329707482</v>
+        <v>1.1978358050834441</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
@@ -2021,13 +2000,13 @@
         <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C75" t="s">
         <v>83</v>
       </c>
       <c r="D75" s="2">
-        <v>1.1978358050834441</v>
+        <v>1.149870855648601</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
@@ -2035,13 +2014,13 @@
         <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="D76" s="2">
-        <v>1.149870855648601</v>
+        <v>1.3884035464546609</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
@@ -2049,13 +2028,13 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C77" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="D77" s="2">
-        <v>1.3884035464546609</v>
+        <v>1.3110974628633476</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
@@ -2063,13 +2042,13 @@
         <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C78" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="D78" s="2">
-        <v>1.3110974628633476</v>
+        <v>1.399545287526522</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
@@ -2077,13 +2056,13 @@
         <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C79" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="D79" s="2">
-        <v>1.399545287526522</v>
+        <v>1.1861007141337072</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
@@ -2091,13 +2070,13 @@
         <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
       </c>
       <c r="D80" s="2">
-        <v>1.1861007141337072</v>
+        <v>1.3949750856157086</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
@@ -2105,13 +2084,13 @@
         <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C81" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D81" s="2">
-        <v>1.3949750856157086</v>
+        <v>1.2945046720991102</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
@@ -2119,13 +2098,13 @@
         <v>3</v>
       </c>
       <c r="B82" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C82" t="s">
         <v>90</v>
       </c>
       <c r="D82" s="2">
-        <v>1.2945046720991102</v>
+        <v>1.3098741705083201</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
@@ -2133,13 +2112,13 @@
         <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C83" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="D83" s="2">
-        <v>1.3098741705083201</v>
+        <v>1.3660138497092829</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
@@ -2147,13 +2126,13 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C84" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="D84" s="2">
-        <v>1.3660138497092829</v>
+        <v>1.3079629316519625</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
@@ -2161,13 +2140,13 @@
         <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="D85" s="2">
-        <v>1.3079629316519625</v>
+        <v>1.2291402916051071</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
@@ -2175,13 +2154,13 @@
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="D86" s="2">
-        <v>1.2291402916051071</v>
+        <v>1.3824908080668525</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
@@ -2189,13 +2168,13 @@
         <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C87" t="s">
         <v>93</v>
       </c>
       <c r="D87" s="2">
-        <v>1.3824908080668525</v>
+        <v>1.3284978233568168</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
@@ -2203,13 +2182,13 @@
         <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C88" t="s">
         <v>94</v>
       </c>
       <c r="D88" s="2">
-        <v>1.3284978233568168</v>
+        <v>1.2293247089378991</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
@@ -2217,13 +2196,13 @@
         <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C89" t="s">
         <v>95</v>
       </c>
       <c r="D89" s="2">
-        <v>1.2293247089378991</v>
+        <v>1.358281491417149</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
@@ -2231,13 +2210,13 @@
         <v>3</v>
       </c>
       <c r="B90" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C90" t="s">
         <v>96</v>
       </c>
       <c r="D90" s="2">
-        <v>1.358281491417149</v>
+        <v>1.2905941285865583</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
@@ -2245,13 +2224,13 @@
         <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C91" t="s">
         <v>97</v>
       </c>
       <c r="D91" s="2">
-        <v>1.2905941285865583</v>
+        <v>1.2443048326398392</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
@@ -2259,13 +2238,13 @@
         <v>3</v>
       </c>
       <c r="B92" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C92" t="s">
         <v>98</v>
       </c>
       <c r="D92" s="2">
-        <v>1.2443048326398392</v>
+        <v>1.1948665082180738</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
@@ -2273,13 +2252,13 @@
         <v>3</v>
       </c>
       <c r="B93" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C93" t="s">
         <v>99</v>
       </c>
       <c r="D93" s="2">
-        <v>1.1948665082180738</v>
+        <v>1.1833849562132697</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
@@ -2287,13 +2266,13 @@
         <v>3</v>
       </c>
       <c r="B94" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C94" t="s">
         <v>100</v>
       </c>
       <c r="D94" s="2">
-        <v>1.1833849562132697</v>
+        <v>1.2645730769984282</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
@@ -2301,13 +2280,13 @@
         <v>3</v>
       </c>
       <c r="B95" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C95" t="s">
         <v>101</v>
       </c>
       <c r="D95" s="2">
-        <v>1.2645730769984282</v>
+        <v>1.3259347463849227</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
@@ -2315,13 +2294,13 @@
         <v>3</v>
       </c>
       <c r="B96" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C96" t="s">
         <v>102</v>
       </c>
       <c r="D96" s="2">
-        <v>1.3259347463849227</v>
+        <v>1.2804223691607284</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
@@ -2329,13 +2308,13 @@
         <v>3</v>
       </c>
       <c r="B97" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C97" t="s">
         <v>103</v>
       </c>
       <c r="D97" s="2">
-        <v>1.2804223691607284</v>
+        <v>1.3272246073859515</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
@@ -2343,13 +2322,13 @@
         <v>3</v>
       </c>
       <c r="B98" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C98" t="s">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="D98" s="2">
-        <v>1.3272246073859515</v>
+        <v>1.1681730312412428</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
@@ -2357,13 +2336,13 @@
         <v>3</v>
       </c>
       <c r="B99" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C99" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="D99" s="2">
-        <v>1.1681730312412428</v>
+        <v>1.2757190463983252</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
@@ -2371,13 +2350,13 @@
         <v>3</v>
       </c>
       <c r="B100" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="C100" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D100" s="2">
-        <v>1.2757190463983252</v>
+        <v>1.272616932800692</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
@@ -2385,13 +2364,13 @@
         <v>3</v>
       </c>
       <c r="B101" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C101" t="s">
         <v>107</v>
       </c>
       <c r="D101" s="2">
-        <v>1.272616932800692</v>
+        <v>1.239665794946671</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
@@ -2399,13 +2378,13 @@
         <v>3</v>
       </c>
       <c r="B102" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C102" t="s">
         <v>108</v>
       </c>
       <c r="D102" s="2">
-        <v>1.239665794946671</v>
+        <v>1.2798900332668564</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
@@ -2413,13 +2392,13 @@
         <v>3</v>
       </c>
       <c r="B103" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C103" t="s">
         <v>109</v>
       </c>
       <c r="D103" s="2">
-        <v>1.2798900332668564</v>
+        <v>1.0508933859535963</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
@@ -2427,13 +2406,13 @@
         <v>3</v>
       </c>
       <c r="B104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C104" t="s">
         <v>110</v>
       </c>
       <c r="D104" s="2">
-        <v>1.0508933859535963</v>
+        <v>1.0960696747741538</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
@@ -2441,13 +2420,13 @@
         <v>3</v>
       </c>
       <c r="B105" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C105" t="s">
         <v>111</v>
       </c>
       <c r="D105" s="2">
-        <v>1.0960696747741538</v>
+        <v>1.1087579454803822</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
@@ -2455,13 +2434,13 @@
         <v>3</v>
       </c>
       <c r="B106" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C106" t="s">
         <v>112</v>
       </c>
       <c r="D106" s="2">
-        <v>1.1087579454803822</v>
+        <v>1.3909168504559839</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
@@ -2469,13 +2448,13 @@
         <v>3</v>
       </c>
       <c r="B107" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C107" t="s">
         <v>113</v>
       </c>
       <c r="D107" s="2">
-        <v>1.3909168504559839</v>
+        <v>1.172921555131994</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
@@ -2483,13 +2462,13 @@
         <v>3</v>
       </c>
       <c r="B108" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C108" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D108" s="2">
-        <v>1.172921555131994</v>
+        <v>1.2839067446167376</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
@@ -2497,13 +2476,13 @@
         <v>3</v>
       </c>
       <c r="B109" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
       </c>
       <c r="D109" s="2">
-        <v>1.2839067446167376</v>
+        <v>1.2619945353064499</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
@@ -2511,13 +2490,13 @@
         <v>3</v>
       </c>
       <c r="B110" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
       </c>
       <c r="D110" s="2">
-        <v>1.2619945353064499</v>
+        <v>1.4809508920715566</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
@@ -2525,13 +2504,13 @@
         <v>3</v>
       </c>
       <c r="B111" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
       </c>
       <c r="D111" s="2">
-        <v>1.4809508920715566</v>
+        <v>1.2171200404387761</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
@@ -2539,13 +2518,13 @@
         <v>3</v>
       </c>
       <c r="B112" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
       </c>
       <c r="D112" s="2">
-        <v>1.2171200404387761</v>
+        <v>1.2954588783540872</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
@@ -2553,13 +2532,13 @@
         <v>3</v>
       </c>
       <c r="B113" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
       </c>
       <c r="D113" s="2">
-        <v>1.2954588783540872</v>
+        <v>1.2894959155609507</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
@@ -2567,13 +2546,13 @@
         <v>3</v>
       </c>
       <c r="B114" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
       </c>
       <c r="D114" s="2">
-        <v>1.2894959155609507</v>
+        <v>1.283188882180835</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
@@ -2581,13 +2560,13 @@
         <v>3</v>
       </c>
       <c r="B115" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
       </c>
       <c r="D115" s="2">
-        <v>1.283188882180835</v>
+        <v>1.2698112218079722</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
@@ -2595,13 +2574,13 @@
         <v>3</v>
       </c>
       <c r="B116" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C116" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="D116" s="2">
-        <v>1.2698112218079722</v>
+        <v>1.3773056702718032</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
@@ -2609,13 +2588,13 @@
         <v>3</v>
       </c>
       <c r="B117" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C117" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="D117" s="2">
-        <v>1.3773056702718032</v>
+        <v>1.4232018699314974</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
@@ -2623,13 +2602,13 @@
         <v>3</v>
       </c>
       <c r="B118" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C118" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="D118" s="2">
-        <v>1.4232018699314974</v>
+        <v>1.4156412879290698</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
@@ -2637,13 +2616,13 @@
         <v>3</v>
       </c>
       <c r="B119" t="s">
+        <v>123</v>
+      </c>
+      <c r="C119" t="s">
         <v>124</v>
       </c>
-      <c r="C119" t="s">
-        <v>26</v>
-      </c>
       <c r="D119" s="2">
-        <v>1.4156412879290698</v>
+        <v>1.4402881948990955</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
@@ -2651,13 +2630,13 @@
         <v>3</v>
       </c>
       <c r="B120" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C120" t="s">
         <v>125</v>
       </c>
       <c r="D120" s="2">
-        <v>1.4402881948990955</v>
+        <v>1.3734167055914563</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
@@ -2665,13 +2644,13 @@
         <v>3</v>
       </c>
       <c r="B121" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C121" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="D121" s="2">
-        <v>1.3734167055914563</v>
+        <v>1.4655195271054304</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
@@ -2679,13 +2658,13 @@
         <v>3</v>
       </c>
       <c r="B122" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C122" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="D122" s="2">
-        <v>1.4655195271054304</v>
+        <v>1.4951915951794785</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
@@ -2693,13 +2672,13 @@
         <v>3</v>
       </c>
       <c r="B123" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C123" t="s">
         <v>127</v>
       </c>
       <c r="D123" s="2">
-        <v>1.4951915951794785</v>
+        <v>1.5884101947993901</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
@@ -2707,13 +2686,13 @@
         <v>3</v>
       </c>
       <c r="B124" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C124" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D124" s="2">
-        <v>1.5884101947993901</v>
+        <v>1.3525227021149564</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
@@ -2721,13 +2700,13 @@
         <v>3</v>
       </c>
       <c r="B125" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C125" t="s">
         <v>130</v>
       </c>
       <c r="D125" s="2">
-        <v>1.3525227021149564</v>
+        <v>1.302078171202101</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
@@ -2735,13 +2714,13 @@
         <v>3</v>
       </c>
       <c r="B126" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C126" t="s">
         <v>131</v>
       </c>
       <c r="D126" s="2">
-        <v>1.302078171202101</v>
+        <v>1.1952982994991233</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
@@ -2749,13 +2728,13 @@
         <v>3</v>
       </c>
       <c r="B127" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C127" t="s">
         <v>132</v>
       </c>
       <c r="D127" s="2">
-        <v>1.1952982994991233</v>
+        <v>1.3915496767482931</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
@@ -2763,13 +2742,13 @@
         <v>3</v>
       </c>
       <c r="B128" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C128" t="s">
-        <v>133</v>
+        <v>57</v>
       </c>
       <c r="D128" s="2">
-        <v>1.3915496767482931</v>
+        <v>1.2456321001030766</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
@@ -2777,13 +2756,13 @@
         <v>3</v>
       </c>
       <c r="B129" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C129" t="s">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="D129" s="2">
-        <v>1.2456321001030766</v>
+        <v>1.7550059327915795</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
@@ -2791,13 +2770,13 @@
         <v>3</v>
       </c>
       <c r="B130" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C130" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D130" s="2">
-        <v>1.7550059327915795</v>
+        <v>1.1989626504073436</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
@@ -2805,13 +2784,13 @@
         <v>3</v>
       </c>
       <c r="B131" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C131" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="D131" s="2">
-        <v>1.1989626504073436</v>
+        <v>1.2377295510281754</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
@@ -2819,13 +2798,13 @@
         <v>3</v>
       </c>
       <c r="B132" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C132" t="s">
         <v>135</v>
       </c>
       <c r="D132" s="2">
-        <v>1.2377295510281754</v>
+        <v>1.1920215964692475</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
@@ -2833,13 +2812,13 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C133" t="s">
         <v>136</v>
       </c>
       <c r="D133" s="2">
-        <v>1.1920215964692475</v>
+        <v>1.3107653421469472</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
@@ -2847,13 +2826,13 @@
         <v>3</v>
       </c>
       <c r="B134" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C134" t="s">
         <v>137</v>
       </c>
       <c r="D134" s="2">
-        <v>1.3107653421469472</v>
+        <v>1.1425705342963344</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
@@ -2861,13 +2840,13 @@
         <v>3</v>
       </c>
       <c r="B135" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C135" t="s">
         <v>138</v>
       </c>
       <c r="D135" s="2">
-        <v>1.1425705342963344</v>
+        <v>1.4143436322632545</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
@@ -2875,13 +2854,13 @@
         <v>3</v>
       </c>
       <c r="B136" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C136" t="s">
         <v>139</v>
       </c>
       <c r="D136" s="2">
-        <v>1.4143436322632545</v>
+        <v>1.1952030589119189</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
@@ -2889,13 +2868,13 @@
         <v>3</v>
       </c>
       <c r="B137" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C137" t="s">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="D137" s="2">
-        <v>1.1952030589119189</v>
+        <v>1.3466425469230174</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
@@ -2903,13 +2882,13 @@
         <v>3</v>
       </c>
       <c r="B138" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C138" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="D138" s="2">
-        <v>1.3466425469230174</v>
+        <v>1.3817853426387519</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
@@ -2917,13 +2896,13 @@
         <v>3</v>
       </c>
       <c r="B139" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C139" t="s">
         <v>141</v>
       </c>
       <c r="D139" s="2">
-        <v>1.3817853426387519</v>
+        <v>1.2686710578499776</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
@@ -2931,13 +2910,13 @@
         <v>3</v>
       </c>
       <c r="B140" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="C140" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D140" s="2">
-        <v>1.2686710578499776</v>
+        <v>1.3170726235660863</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
@@ -2945,13 +2924,13 @@
         <v>3</v>
       </c>
       <c r="B141" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C141" t="s">
         <v>144</v>
       </c>
       <c r="D141" s="2">
-        <v>1.3170726235660863</v>
+        <v>1.263496099333425</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
@@ -2959,13 +2938,13 @@
         <v>3</v>
       </c>
       <c r="B142" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C142" t="s">
         <v>145</v>
       </c>
       <c r="D142" s="2">
-        <v>1.263496099333425</v>
+        <v>1.2395331719569973</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
@@ -2973,13 +2952,13 @@
         <v>3</v>
       </c>
       <c r="B143" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C143" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="D143" s="2">
-        <v>1.2395331719569973</v>
+        <v>1.296387421888856</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
@@ -2987,13 +2966,13 @@
         <v>3</v>
       </c>
       <c r="B144" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C144" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="D144" s="2">
-        <v>1.296387421888856</v>
+        <v>1.2696025977646528</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
@@ -3001,13 +2980,13 @@
         <v>3</v>
       </c>
       <c r="B145" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C145" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D145" s="2">
-        <v>1.2696025977646528</v>
+        <v>1.1146434842524866</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
@@ -3015,13 +2994,13 @@
         <v>3</v>
       </c>
       <c r="B146" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C146" t="s">
         <v>149</v>
       </c>
       <c r="D146" s="2">
-        <v>1.3330659890800562</v>
+        <v>1.0903064792152024</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
@@ -3029,13 +3008,13 @@
         <v>3</v>
       </c>
       <c r="B147" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C147" t="s">
         <v>150</v>
       </c>
       <c r="D147" s="2">
-        <v>1.1070344407394124</v>
+        <v>1.0733244885342883</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
@@ -3043,13 +3022,13 @@
         <v>3</v>
       </c>
       <c r="B148" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C148" t="s">
         <v>151</v>
       </c>
       <c r="D148" s="2">
-        <v>1.4294833024319347</v>
+        <v>1.0158661059785628</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
@@ -3057,13 +3036,13 @@
         <v>3</v>
       </c>
       <c r="B149" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C149" t="s">
         <v>152</v>
       </c>
       <c r="D149" s="2">
-        <v>1.1617498078990109</v>
+        <v>1.0175200322395506</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
@@ -3071,13 +3050,13 @@
         <v>3</v>
       </c>
       <c r="B150" t="s">
+        <v>153</v>
+      </c>
+      <c r="C150" t="s">
         <v>148</v>
       </c>
-      <c r="C150" t="s">
-        <v>153</v>
-      </c>
       <c r="D150" s="2">
-        <v>1.5140772950875732</v>
+        <v>1.1328058384715944</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
@@ -3085,13 +3064,13 @@
         <v>3</v>
       </c>
       <c r="B151" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C151" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D151" s="2">
-        <v>1.3838772101521348</v>
+        <v>1.2273493890531206</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
@@ -3099,13 +3078,13 @@
         <v>3</v>
       </c>
       <c r="B152" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C152" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D152" s="2">
-        <v>1.1146434842524866</v>
+        <v>1.2498334786230585</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
@@ -3113,13 +3092,13 @@
         <v>3</v>
       </c>
       <c r="B153" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C153" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D153" s="2">
-        <v>1.0903064792152024</v>
+        <v>1.1958526335869808</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
@@ -3127,110 +3106,12 @@
         <v>3</v>
       </c>
       <c r="B154" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C154" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D154" s="2">
-        <v>1.0733244885342883</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
-        <v>3</v>
-      </c>
-      <c r="B155" t="s">
-        <v>155</v>
-      </c>
-      <c r="C155" t="s">
-        <v>159</v>
-      </c>
-      <c r="D155" s="2">
-        <v>1.0158661059785628</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
-        <v>3</v>
-      </c>
-      <c r="B156" t="s">
-        <v>155</v>
-      </c>
-      <c r="C156" t="s">
-        <v>160</v>
-      </c>
-      <c r="D156" s="2">
-        <v>1.0175200322395506</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
-        <v>3</v>
-      </c>
-      <c r="B157" t="s">
-        <v>161</v>
-      </c>
-      <c r="C157" t="s">
-        <v>156</v>
-      </c>
-      <c r="D157" s="2">
-        <v>1.1328058384715944</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
-        <v>3</v>
-      </c>
-      <c r="B158" t="s">
-        <v>161</v>
-      </c>
-      <c r="C158" t="s">
-        <v>157</v>
-      </c>
-      <c r="D158" s="2">
-        <v>1.2273493890531206</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
-        <v>3</v>
-      </c>
-      <c r="B159" t="s">
-        <v>161</v>
-      </c>
-      <c r="C159" t="s">
-        <v>158</v>
-      </c>
-      <c r="D159" s="2">
-        <v>1.2498334786230585</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
-        <v>3</v>
-      </c>
-      <c r="B160" t="s">
-        <v>161</v>
-      </c>
-      <c r="C160" t="s">
-        <v>159</v>
-      </c>
-      <c r="D160" s="2">
-        <v>1.1958526335869808</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
-        <v>3</v>
-      </c>
-      <c r="B161" t="s">
-        <v>161</v>
-      </c>
-      <c r="C161" t="s">
-        <v>160</v>
-      </c>
-      <c r="D161" s="2">
         <v>1.1745905681287681</v>
       </c>
     </row>

--- a/Simulador.xlsx
+++ b/Simulador.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://almaceneselrey-my.sharepoint.com/personal/ssegura_almaceneselrey_com/Documents/11.- Proyectos/03.- Calculadora de Costos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="11_AD4D2F04E46CFB4ACB3E2001B594FA10683EDF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F81D7828-BBA2-47B0-855F-51807D740924}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="11_AD4D2F04E46CFB4ACB3E2001B594FA10683EDF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FB54426-F631-48D5-B58E-8CF6D9228069}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="155">
   <si>
     <t>PAIS</t>
   </si>
@@ -501,6 +501,9 @@
   </si>
   <si>
     <t>ZAPATERIA</t>
+  </si>
+  <si>
+    <t>Margen</t>
   </si>
 </sst>
 </file>
@@ -535,12 +538,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -556,12 +565,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -846,16 +858,17 @@
   <dimension ref="A1:J154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F130" sqref="F130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" customWidth="1"/>
     <col min="2" max="2" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.453125" bestFit="1" customWidth="1"/>
@@ -876,6 +889,9 @@
       <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="E1" s="5" t="s">
+        <v>154</v>
+      </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -893,6 +909,9 @@
       <c r="D2" s="2">
         <v>1.1478771327441453</v>
       </c>
+      <c r="E2" s="2">
+        <v>0.45620545748740299</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -910,6 +929,9 @@
       <c r="D3" s="2">
         <v>1.1282126228629472</v>
       </c>
+      <c r="E3" s="2">
+        <v>0.45620545748740299</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -927,6 +949,9 @@
       <c r="D4" s="2">
         <v>1.2653506835353154</v>
       </c>
+      <c r="E4" s="2">
+        <v>0.45620545748740299</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -944,6 +969,9 @@
       <c r="D5" s="2">
         <v>1.3680819161149416</v>
       </c>
+      <c r="E5" s="2">
+        <v>0.45620545748740299</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -961,6 +989,9 @@
       <c r="D6" s="2">
         <v>1.1217868740115526</v>
       </c>
+      <c r="E6" s="2">
+        <v>0.45620545748740299</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -978,6 +1009,9 @@
       <c r="D7" s="2">
         <v>1.171110181600086</v>
       </c>
+      <c r="E7" s="2">
+        <v>0.45620545748740299</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -995,6 +1029,9 @@
       <c r="D8" s="2">
         <v>1.1959549983768827</v>
       </c>
+      <c r="E8" s="2">
+        <v>0.45620545748740299</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1012,6 +1049,9 @@
       <c r="D9" s="2">
         <v>1.2729918089909036</v>
       </c>
+      <c r="E9" s="2">
+        <v>0.45620545748740299</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1029,6 +1069,9 @@
       <c r="D10" s="2">
         <v>1.1468566484740801</v>
       </c>
+      <c r="E10" s="2">
+        <v>0.45620545748740299</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1046,6 +1089,9 @@
       <c r="D11" s="2">
         <v>1.1428565678452649</v>
       </c>
+      <c r="E11" s="2">
+        <v>0.45620545748740299</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1063,6 +1109,9 @@
       <c r="D12" s="2">
         <v>1.1676364633057881</v>
       </c>
+      <c r="E12" s="2">
+        <v>0.45620545748740299</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1080,6 +1129,9 @@
       <c r="D13" s="2">
         <v>1.1222558816122317</v>
       </c>
+      <c r="E13" s="2">
+        <v>0.45620545748740299</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1097,6 +1149,9 @@
       <c r="D14" s="2">
         <v>1.1217884306306174</v>
       </c>
+      <c r="E14" s="2">
+        <v>0.45620545748740299</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1114,6 +1169,9 @@
       <c r="D15" s="2">
         <v>1.1353082902581864</v>
       </c>
+      <c r="E15" s="2">
+        <v>0.45620545748740299</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1131,6 +1189,9 @@
       <c r="D16" s="2">
         <v>1.2400349538364184</v>
       </c>
+      <c r="E16" s="2">
+        <v>0.45620545748740299</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1148,6 +1209,9 @@
       <c r="D17" s="2">
         <v>1.1505650794324853</v>
       </c>
+      <c r="E17" s="2">
+        <v>0.45620545748740299</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1165,6 +1229,9 @@
       <c r="D18" s="2">
         <v>1.1702011377957791</v>
       </c>
+      <c r="E18" s="2">
+        <v>0.45620545748740299</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1182,6 +1249,9 @@
       <c r="D19" s="2">
         <v>1.2733204767197783</v>
       </c>
+      <c r="E19" s="2">
+        <v>0.45980744380367594</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1199,6 +1269,9 @@
       <c r="D20" s="2">
         <v>1.3580189716532618</v>
       </c>
+      <c r="E20" s="2">
+        <v>0.45980744380367594</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1216,6 +1289,9 @@
       <c r="D21" s="2">
         <v>1.1596688229842866</v>
       </c>
+      <c r="E21" s="2">
+        <v>0.45980744380367594</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1233,6 +1309,9 @@
       <c r="D22" s="2">
         <v>1.1571493855145218</v>
       </c>
+      <c r="E22" s="2">
+        <v>0.45980744380367594</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1250,6 +1329,9 @@
       <c r="D23" s="2">
         <v>1.3810727899856428</v>
       </c>
+      <c r="E23" s="2">
+        <v>0.45980744380367594</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1267,6 +1349,9 @@
       <c r="D24" s="2">
         <v>1.2647051074230231</v>
       </c>
+      <c r="E24" s="2">
+        <v>0.45980744380367594</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1284,6 +1369,9 @@
       <c r="D25" s="2">
         <v>1.0857690050912276</v>
       </c>
+      <c r="E25" s="2">
+        <v>0.45980744380367594</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1301,6 +1389,9 @@
       <c r="D26" s="2">
         <v>1.4098076019631658</v>
       </c>
+      <c r="E26" s="2">
+        <v>0.33037858200869891</v>
+      </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1318,6 +1409,9 @@
       <c r="D27" s="2">
         <v>1.4862113168766178</v>
       </c>
+      <c r="E27" s="2">
+        <v>0.33037858200869891</v>
+      </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1335,6 +1429,9 @@
       <c r="D28" s="2">
         <v>1.3399199071998171</v>
       </c>
+      <c r="E28" s="2">
+        <v>0.33037858200869891</v>
+      </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1352,6 +1449,9 @@
       <c r="D29" s="2">
         <v>1.3297199506474837</v>
       </c>
+      <c r="E29" s="2">
+        <v>0.33037858200869891</v>
+      </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1369,6 +1469,9 @@
       <c r="D30" s="2">
         <v>1.2768125582192387</v>
       </c>
+      <c r="E30" s="2">
+        <v>0.33037858200869891</v>
+      </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1386,6 +1489,9 @@
       <c r="D31" s="2">
         <v>1.192079674257952</v>
       </c>
+      <c r="E31" s="2">
+        <v>0.33037858200869891</v>
+      </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -1403,11 +1509,14 @@
       <c r="D32" s="2">
         <v>1.3155407110436803</v>
       </c>
+      <c r="E32" s="2">
+        <v>0.33037858200869891</v>
+      </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -1420,8 +1529,11 @@
       <c r="D33" s="2">
         <v>1.2167252778103013</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E33" s="2">
+        <v>0.40310306893173842</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -1434,8 +1546,11 @@
       <c r="D34" s="2">
         <v>1.1278828897636672</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E34" s="2">
+        <v>0.40310306893173842</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -1448,8 +1563,11 @@
       <c r="D35" s="2">
         <v>1.1483259760804001</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E35" s="2">
+        <v>0.40310306893173842</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -1462,8 +1580,11 @@
       <c r="D36" s="2">
         <v>1.1785967887214184</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E36" s="2">
+        <v>0.40310306893173842</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -1476,8 +1597,11 @@
       <c r="D37" s="2">
         <v>1.1028509502813038</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E37" s="2">
+        <v>0.40310306893173842</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -1490,8 +1614,11 @@
       <c r="D38" s="2">
         <v>1.1445961312223596</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E38" s="2">
+        <v>0.40310306893173842</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -1504,8 +1631,11 @@
       <c r="D39" s="2">
         <v>1.1090751892313</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E39" s="2">
+        <v>0.40310306893173842</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -1518,8 +1648,11 @@
       <c r="D40" s="2">
         <v>1.242667147612637</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E40" s="2">
+        <v>0.57166866368296276</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -1532,8 +1665,11 @@
       <c r="D41" s="2">
         <v>1.1985442364140302</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E41" s="2">
+        <v>0.57166866368296276</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -1546,8 +1682,11 @@
       <c r="D42" s="2">
         <v>1.2400999911478348</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E42" s="2">
+        <v>0.57166866368296276</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -1560,8 +1699,11 @@
       <c r="D43" s="2">
         <v>1.1921798368834113</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E43" s="2">
+        <v>0.57166866368296276</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -1574,8 +1716,11 @@
       <c r="D44" s="2">
         <v>1.1521543359902411</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E44" s="2">
+        <v>0.57166866368296276</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -1588,8 +1733,11 @@
       <c r="D45" s="2">
         <v>1.1833759825887418</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E45" s="2">
+        <v>0.57166866368296276</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -1602,8 +1750,11 @@
       <c r="D46" s="2">
         <v>1.2849406254934872</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E46" s="2">
+        <v>0.57166866368296276</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -1616,8 +1767,11 @@
       <c r="D47" s="2">
         <v>1.2076093530228251</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E47" s="2">
+        <v>0.57166866368296276</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>3</v>
       </c>
@@ -1630,8 +1784,11 @@
       <c r="D48" s="2">
         <v>1.1389352056345048</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E48" s="2">
+        <v>0.55660331747187475</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -1644,8 +1801,11 @@
       <c r="D49" s="2">
         <v>1.2448263533332689</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E49" s="2">
+        <v>0.55660331747187475</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>3</v>
       </c>
@@ -1658,8 +1818,11 @@
       <c r="D50" s="2">
         <v>1.2119073364877964</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E50" s="2">
+        <v>0.55660331747187475</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -1672,8 +1835,11 @@
       <c r="D51" s="2">
         <v>1.1534416521679367</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E51" s="2">
+        <v>0.55660331747187475</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>3</v>
       </c>
@@ -1686,8 +1852,11 @@
       <c r="D52" s="2">
         <v>1.1473489487658908</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E52" s="2">
+        <v>0.35863903281901716</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -1700,8 +1869,11 @@
       <c r="D53" s="2">
         <v>1.1342108436686225</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E53" s="2">
+        <v>0.35863903281901716</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -1714,8 +1886,11 @@
       <c r="D54" s="2">
         <v>1.3897384460212223</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E54" s="2">
+        <v>0.35863903281901716</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>3</v>
       </c>
@@ -1728,8 +1903,11 @@
       <c r="D55" s="2">
         <v>1.1274056057081743</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E55" s="2">
+        <v>0.35863903281901716</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>3</v>
       </c>
@@ -1742,8 +1920,11 @@
       <c r="D56" s="2">
         <v>1.2236871681577106</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E56" s="2">
+        <v>0.35863903281901716</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>3</v>
       </c>
@@ -1756,8 +1937,11 @@
       <c r="D57" s="2">
         <v>1.1904941356199297</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E57" s="2">
+        <v>0.52100835323703187</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>3</v>
       </c>
@@ -1770,8 +1954,11 @@
       <c r="D58" s="2">
         <v>1.2388204728616414</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E58" s="2">
+        <v>0.52100835323703187</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>3</v>
       </c>
@@ -1784,8 +1971,11 @@
       <c r="D59" s="2">
         <v>1.1429831388379048</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E59" s="2">
+        <v>0.52100835323703187</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>3</v>
       </c>
@@ -1798,8 +1988,11 @@
       <c r="D60" s="2">
         <v>1.1560807546092657</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E60" s="2">
+        <v>0.52100835323703187</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>3</v>
       </c>
@@ -1812,8 +2005,11 @@
       <c r="D61" s="2">
         <v>1.1966506066948293</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E61" s="2">
+        <v>0.52100835323703187</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -1826,8 +2022,11 @@
       <c r="D62" s="2">
         <v>1.1172066917031265</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E62" s="2">
+        <v>0.52100835323703187</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -1840,8 +2039,11 @@
       <c r="D63" s="2">
         <v>1.4256210845920581</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E63" s="2">
+        <v>0.52100835323703187</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>3</v>
       </c>
@@ -1854,8 +2056,11 @@
       <c r="D64" s="2">
         <v>1.2250389556160122</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E64" s="2">
+        <v>0.52100835323703187</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>3</v>
       </c>
@@ -1868,8 +2073,11 @@
       <c r="D65" s="2">
         <v>1.7603978429756362</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E65" s="2">
+        <v>0.52100835323703187</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>3</v>
       </c>
@@ -1882,8 +2090,11 @@
       <c r="D66" s="2">
         <v>1.1735580119587266</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E66" s="2">
+        <v>0.52100835323703187</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>3</v>
       </c>
@@ -1896,8 +2107,11 @@
       <c r="D67" s="2">
         <v>1.2126255679554208</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E67" s="2">
+        <v>0.55907785499506724</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>3</v>
       </c>
@@ -1910,8 +2124,11 @@
       <c r="D68" s="2">
         <v>1.2304609694176147</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E68" s="2">
+        <v>0.55907785499506724</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>3</v>
       </c>
@@ -1924,8 +2141,11 @@
       <c r="D69" s="2">
         <v>1.1702672251960313</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E69" s="2">
+        <v>0.55907785499506724</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>3</v>
       </c>
@@ -1938,8 +2158,11 @@
       <c r="D70" s="2">
         <v>1.1028187186556553</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E70" s="2">
+        <v>0.55907785499506724</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>3</v>
       </c>
@@ -1952,8 +2175,11 @@
       <c r="D71" s="2">
         <v>1.313783472519767</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E71" s="2">
+        <v>0.53666314943246596</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>3</v>
       </c>
@@ -1966,8 +2192,11 @@
       <c r="D72" s="2">
         <v>1.266513888478817</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E72" s="2">
+        <v>0.53666314943246596</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>3</v>
       </c>
@@ -1980,8 +2209,11 @@
       <c r="D73" s="2">
         <v>1.3178407329707482</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E73" s="2">
+        <v>0.53666314943246596</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>3</v>
       </c>
@@ -1994,8 +2226,11 @@
       <c r="D74" s="2">
         <v>1.1978358050834441</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E74" s="2">
+        <v>0.53666314943246596</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>3</v>
       </c>
@@ -2008,8 +2243,11 @@
       <c r="D75" s="2">
         <v>1.149870855648601</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E75" s="2">
+        <v>0.53666314943246596</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>3</v>
       </c>
@@ -2022,8 +2260,11 @@
       <c r="D76" s="2">
         <v>1.3884035464546609</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E76" s="2">
+        <v>0.53666314943246596</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>3</v>
       </c>
@@ -2036,8 +2277,11 @@
       <c r="D77" s="2">
         <v>1.3110974628633476</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E77" s="2">
+        <v>0.50255216365820032</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>3</v>
       </c>
@@ -2050,8 +2294,11 @@
       <c r="D78" s="2">
         <v>1.399545287526522</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E78" s="2">
+        <v>0.50255216365820032</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>3</v>
       </c>
@@ -2064,8 +2311,11 @@
       <c r="D79" s="2">
         <v>1.1861007141337072</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E79" s="2">
+        <v>0.50255216365820032</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>3</v>
       </c>
@@ -2078,8 +2328,11 @@
       <c r="D80" s="2">
         <v>1.3949750856157086</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E80" s="2">
+        <v>0.50255216365820032</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>3</v>
       </c>
@@ -2092,8 +2345,11 @@
       <c r="D81" s="2">
         <v>1.2945046720991102</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E81" s="2">
+        <v>0.49356189344900214</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>3</v>
       </c>
@@ -2106,8 +2362,11 @@
       <c r="D82" s="2">
         <v>1.3098741705083201</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E82" s="2">
+        <v>0.49356189344900214</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>3</v>
       </c>
@@ -2120,8 +2379,11 @@
       <c r="D83" s="2">
         <v>1.3660138497092829</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E83" s="2">
+        <v>0.49356189344900214</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>3</v>
       </c>
@@ -2134,8 +2396,11 @@
       <c r="D84" s="2">
         <v>1.3079629316519625</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E84" s="2">
+        <v>0.49356189344900214</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>3</v>
       </c>
@@ -2148,8 +2413,11 @@
       <c r="D85" s="2">
         <v>1.2291402916051071</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E85" s="2">
+        <v>0.49356189344900214</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>3</v>
       </c>
@@ -2162,8 +2430,11 @@
       <c r="D86" s="2">
         <v>1.3824908080668525</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E86" s="2">
+        <v>0.49356189344900214</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>3</v>
       </c>
@@ -2176,8 +2447,11 @@
       <c r="D87" s="2">
         <v>1.3284978233568168</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E87" s="2">
+        <v>0.49356189344900214</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>3</v>
       </c>
@@ -2190,8 +2464,11 @@
       <c r="D88" s="2">
         <v>1.2293247089378991</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E88" s="2">
+        <v>0.49356189344900214</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>3</v>
       </c>
@@ -2204,8 +2481,11 @@
       <c r="D89" s="2">
         <v>1.358281491417149</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E89" s="2">
+        <v>0.49356189344900214</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>3</v>
       </c>
@@ -2218,8 +2498,11 @@
       <c r="D90" s="2">
         <v>1.2905941285865583</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E90" s="2">
+        <v>0.49356189344900214</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>3</v>
       </c>
@@ -2232,8 +2515,11 @@
       <c r="D91" s="2">
         <v>1.2443048326398392</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E91" s="2">
+        <v>0.49356189344900214</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>3</v>
       </c>
@@ -2246,8 +2532,11 @@
       <c r="D92" s="2">
         <v>1.1948665082180738</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E92" s="2">
+        <v>0.49356189344900214</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>3</v>
       </c>
@@ -2260,8 +2549,11 @@
       <c r="D93" s="2">
         <v>1.1833849562132697</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E93" s="2">
+        <v>0.49356189344900214</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>3</v>
       </c>
@@ -2274,8 +2566,11 @@
       <c r="D94" s="2">
         <v>1.2645730769984282</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E94" s="2">
+        <v>0.49356189344900214</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>3</v>
       </c>
@@ -2288,8 +2583,11 @@
       <c r="D95" s="2">
         <v>1.3259347463849227</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E95" s="2">
+        <v>0.49356189344900214</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>3</v>
       </c>
@@ -2302,8 +2600,11 @@
       <c r="D96" s="2">
         <v>1.2804223691607284</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E96" s="2">
+        <v>0.49356189344900214</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>3</v>
       </c>
@@ -2316,8 +2617,11 @@
       <c r="D97" s="2">
         <v>1.3272246073859515</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E97" s="2">
+        <v>0.49356189344900214</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>3</v>
       </c>
@@ -2330,8 +2634,11 @@
       <c r="D98" s="2">
         <v>1.1681730312412428</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E98" s="2">
+        <v>0.49356189344900214</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>3</v>
       </c>
@@ -2344,8 +2651,11 @@
       <c r="D99" s="2">
         <v>1.2757190463983252</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E99" s="2">
+        <v>0.49356189344900214</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>3</v>
       </c>
@@ -2358,8 +2668,11 @@
       <c r="D100" s="2">
         <v>1.272616932800692</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E100" s="2">
+        <v>0.41390396542484248</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>3</v>
       </c>
@@ -2372,8 +2685,11 @@
       <c r="D101" s="2">
         <v>1.239665794946671</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E101" s="2">
+        <v>0.41390396542484248</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>3</v>
       </c>
@@ -2386,8 +2702,11 @@
       <c r="D102" s="2">
         <v>1.2798900332668564</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E102" s="2">
+        <v>0.41390396542484248</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>3</v>
       </c>
@@ -2400,8 +2719,11 @@
       <c r="D103" s="2">
         <v>1.0508933859535963</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E103" s="2">
+        <v>0.41390396542484248</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>3</v>
       </c>
@@ -2414,8 +2736,11 @@
       <c r="D104" s="2">
         <v>1.0960696747741538</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E104" s="2">
+        <v>0.41390396542484248</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>3</v>
       </c>
@@ -2428,8 +2753,11 @@
       <c r="D105" s="2">
         <v>1.1087579454803822</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E105" s="2">
+        <v>0.41390396542484248</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>3</v>
       </c>
@@ -2442,8 +2770,11 @@
       <c r="D106" s="2">
         <v>1.3909168504559839</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E106" s="2">
+        <v>0.41390396542484248</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>3</v>
       </c>
@@ -2456,8 +2787,11 @@
       <c r="D107" s="2">
         <v>1.172921555131994</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E107" s="2">
+        <v>0.41390396542484248</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>3</v>
       </c>
@@ -2470,8 +2804,11 @@
       <c r="D108" s="2">
         <v>1.2839067446167376</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E108" s="2">
+        <v>0.42506217613847658</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>3</v>
       </c>
@@ -2484,8 +2821,11 @@
       <c r="D109" s="2">
         <v>1.2619945353064499</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E109" s="2">
+        <v>0.42506217613847658</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>3</v>
       </c>
@@ -2498,8 +2838,11 @@
       <c r="D110" s="2">
         <v>1.4809508920715566</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E110" s="2">
+        <v>0.42506217613847658</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>3</v>
       </c>
@@ -2512,8 +2855,11 @@
       <c r="D111" s="2">
         <v>1.2171200404387761</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E111" s="2">
+        <v>0.42506217613847658</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>3</v>
       </c>
@@ -2526,8 +2872,11 @@
       <c r="D112" s="2">
         <v>1.2954588783540872</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E112" s="2">
+        <v>0.42506217613847658</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>3</v>
       </c>
@@ -2540,8 +2889,11 @@
       <c r="D113" s="2">
         <v>1.2894959155609507</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E113" s="2">
+        <v>0.42506217613847658</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>3</v>
       </c>
@@ -2554,8 +2906,11 @@
       <c r="D114" s="2">
         <v>1.283188882180835</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E114" s="2">
+        <v>0.42506217613847658</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>3</v>
       </c>
@@ -2568,8 +2923,11 @@
       <c r="D115" s="2">
         <v>1.2698112218079722</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E115" s="2">
+        <v>0.42506217613847658</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>3</v>
       </c>
@@ -2582,8 +2940,11 @@
       <c r="D116" s="2">
         <v>1.3773056702718032</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E116" s="2">
+        <v>0.44946361199784735</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>3</v>
       </c>
@@ -2596,8 +2957,11 @@
       <c r="D117" s="2">
         <v>1.4232018699314974</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E117" s="2">
+        <v>0.44946361199784735</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>3</v>
       </c>
@@ -2610,8 +2974,11 @@
       <c r="D118" s="2">
         <v>1.4156412879290698</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E118" s="2">
+        <v>0.44946361199784735</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>3</v>
       </c>
@@ -2624,8 +2991,11 @@
       <c r="D119" s="2">
         <v>1.4402881948990955</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E119" s="2">
+        <v>0.44946361199784735</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>3</v>
       </c>
@@ -2638,8 +3008,11 @@
       <c r="D120" s="2">
         <v>1.3734167055914563</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E120" s="2">
+        <v>0.44946361199784735</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>3</v>
       </c>
@@ -2652,8 +3025,11 @@
       <c r="D121" s="2">
         <v>1.4655195271054304</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E121" s="2">
+        <v>0.44946361199784735</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>3</v>
       </c>
@@ -2666,8 +3042,11 @@
       <c r="D122" s="2">
         <v>1.4951915951794785</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E122" s="2">
+        <v>0.44946361199784735</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>3</v>
       </c>
@@ -2680,8 +3059,11 @@
       <c r="D123" s="2">
         <v>1.5884101947993901</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E123" s="2">
+        <v>0.44946361199784735</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>3</v>
       </c>
@@ -2694,8 +3076,11 @@
       <c r="D124" s="2">
         <v>1.3525227021149564</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E124" s="2">
+        <v>0.56896903076424699</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>3</v>
       </c>
@@ -2708,8 +3093,11 @@
       <c r="D125" s="2">
         <v>1.302078171202101</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E125" s="2">
+        <v>0.56896903076424699</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>3</v>
       </c>
@@ -2722,8 +3110,11 @@
       <c r="D126" s="2">
         <v>1.1952982994991233</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E126" s="2">
+        <v>0.56896903076424699</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>3</v>
       </c>
@@ -2736,8 +3127,11 @@
       <c r="D127" s="2">
         <v>1.3915496767482931</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E127" s="2">
+        <v>0.56896903076424699</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>3</v>
       </c>
@@ -2750,8 +3144,11 @@
       <c r="D128" s="2">
         <v>1.2456321001030766</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E128" s="2">
+        <v>0.56896903076424699</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>3</v>
       </c>
@@ -2764,8 +3161,11 @@
       <c r="D129" s="2">
         <v>1.7550059327915795</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E129" s="2">
+        <v>0.56896903076424699</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>3</v>
       </c>
@@ -2778,8 +3178,11 @@
       <c r="D130" s="2">
         <v>1.1989626504073436</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E130" s="2">
+        <v>0.56896903076424699</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>3</v>
       </c>
@@ -2792,8 +3195,11 @@
       <c r="D131" s="2">
         <v>1.2377295510281754</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E131" s="2">
+        <v>0.56896903076424699</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>3</v>
       </c>
@@ -2806,8 +3212,11 @@
       <c r="D132" s="2">
         <v>1.1920215964692475</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E132" s="2">
+        <v>0.56896903076424699</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>3</v>
       </c>
@@ -2820,8 +3229,11 @@
       <c r="D133" s="2">
         <v>1.3107653421469472</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E133" s="2">
+        <v>0.56896903076424699</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>3</v>
       </c>
@@ -2834,8 +3246,11 @@
       <c r="D134" s="2">
         <v>1.1425705342963344</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E134" s="2">
+        <v>0.56896903076424699</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>3</v>
       </c>
@@ -2848,8 +3263,11 @@
       <c r="D135" s="2">
         <v>1.4143436322632545</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E135" s="2">
+        <v>0.56896903076424699</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>3</v>
       </c>
@@ -2862,8 +3280,11 @@
       <c r="D136" s="2">
         <v>1.1952030589119189</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E136" s="2">
+        <v>0.56896903076424699</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>3</v>
       </c>
@@ -2876,8 +3297,11 @@
       <c r="D137" s="2">
         <v>1.3466425469230174</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E137" s="2">
+        <v>0.56896903076424699</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>3</v>
       </c>
@@ -2890,8 +3314,11 @@
       <c r="D138" s="2">
         <v>1.3817853426387519</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E138" s="2">
+        <v>0.56896903076424699</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>3</v>
       </c>
@@ -2904,8 +3331,11 @@
       <c r="D139" s="2">
         <v>1.2686710578499776</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E139" s="2">
+        <v>0.56896903076424699</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>3</v>
       </c>
@@ -2918,8 +3348,11 @@
       <c r="D140" s="2">
         <v>1.3170726235660863</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E140" s="2">
+        <v>0.37772458664973907</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>3</v>
       </c>
@@ -2932,8 +3365,11 @@
       <c r="D141" s="2">
         <v>1.263496099333425</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E141" s="2">
+        <v>0.37772458664973907</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>3</v>
       </c>
@@ -2946,8 +3382,11 @@
       <c r="D142" s="2">
         <v>1.2395331719569973</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E142" s="2">
+        <v>0.37772458664973907</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>3</v>
       </c>
@@ -2960,8 +3399,11 @@
       <c r="D143" s="2">
         <v>1.296387421888856</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E143" s="2">
+        <v>0.37772458664973907</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>3</v>
       </c>
@@ -2974,8 +3416,11 @@
       <c r="D144" s="2">
         <v>1.2696025977646528</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E144" s="2">
+        <v>0.37772458664973907</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>3</v>
       </c>
@@ -2988,8 +3433,11 @@
       <c r="D145" s="2">
         <v>1.1146434842524866</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E145" s="2">
+        <v>0.5467215661335092</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>3</v>
       </c>
@@ -3002,8 +3450,11 @@
       <c r="D146" s="2">
         <v>1.0903064792152024</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E146" s="2">
+        <v>0.5467215661335092</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>3</v>
       </c>
@@ -3016,8 +3467,11 @@
       <c r="D147" s="2">
         <v>1.0733244885342883</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E147" s="2">
+        <v>0.5467215661335092</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>3</v>
       </c>
@@ -3030,8 +3484,11 @@
       <c r="D148" s="2">
         <v>1.0158661059785628</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E148" s="2">
+        <v>0.5467215661335092</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>3</v>
       </c>
@@ -3044,8 +3501,11 @@
       <c r="D149" s="2">
         <v>1.0175200322395506</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E149" s="2">
+        <v>0.5467215661335092</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>3</v>
       </c>
@@ -3058,8 +3518,11 @@
       <c r="D150" s="2">
         <v>1.1328058384715944</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E150" s="2">
+        <v>0.51009260114916199</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>3</v>
       </c>
@@ -3072,8 +3535,11 @@
       <c r="D151" s="2">
         <v>1.2273493890531206</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E151" s="2">
+        <v>0.51009260114916199</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>3</v>
       </c>
@@ -3086,8 +3552,11 @@
       <c r="D152" s="2">
         <v>1.2498334786230585</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E152" s="2">
+        <v>0.51009260114916199</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>3</v>
       </c>
@@ -3100,8 +3569,11 @@
       <c r="D153" s="2">
         <v>1.1958526335869808</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E153" s="2">
+        <v>0.51009260114916199</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>3</v>
       </c>
@@ -3113,6 +3585,9 @@
       </c>
       <c r="D154" s="2">
         <v>1.1745905681287681</v>
+      </c>
+      <c r="E154" s="2">
+        <v>0.51009260114916199</v>
       </c>
     </row>
   </sheetData>
